--- a/StructureDefinition-ObservationLife-adultcheck.xlsx
+++ b/StructureDefinition-ObservationLife-adultcheck.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://tsti.example.com/StructureDefinition/ObservationLife-adultcheck</t>
+    <t>https://fhirisolationroom.azurehealthcareapis.com/StructureDefinition/ObservationLife-adultcheck</t>
   </si>
   <si>
     <t>Version</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -1276,7 +1276,7 @@
     <t>Observation.code.coding.code</t>
   </si>
   <si>
-    <t>http://tsti.example.com/ValueSet/adultcheck-lifecode</t>
+    <t>https://fhirisolationroom.azurehealthcareapis.com/ValueSet/adultcheck-lifecode</t>
   </si>
   <si>
     <t>Observation.code.coding.display</t>
@@ -1291,7 +1291,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://tsti.example.com/StructureDefinition/Patient-adultcheck)
+    <t xml:space="preserve">Reference(https://fhirisolationroom.azurehealthcareapis.com/StructureDefinition/Patient-adultcheck)
 </t>
   </si>
   <si>
@@ -2359,7 +2359,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="147.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.9765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="24.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
